--- a/CapStatement/Argonaut_Capability_Statement_Clinical_Notes.xlsx
+++ b/CapStatement/Argonaut_Capability_Statement_Clinical_Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Python\MyNotebooks\CapStatement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06B4E9F-CABE-41EC-BE1B-6B5BDF25CE06}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1327FED1-11BB-4991-93AC-86D3FF9F6B58}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1860" windowWidth="23250" windowHeight="11055" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="-25485" yWindow="585" windowWidth="23250" windowHeight="11055" activeTab="5" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -693,7 +693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15F3286-55C1-40D0-93FC-C97EF26956B8}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1066,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7399C2ED-EDEB-47AB-8C1E-1290512B1D2F}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,7 +1410,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>

--- a/CapStatement/Argonaut_Capability_Statement_Clinical_Notes.xlsx
+++ b/CapStatement/Argonaut_Capability_Statement_Clinical_Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Python\MyNotebooks\CapStatement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1327FED1-11BB-4991-93AC-86D3FF9F6B58}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2979D660-9140-4F33-BDFA-D1C1215ECE3D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25485" yWindow="585" windowWidth="23250" windowHeight="11055" activeTab="5" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="-28920" yWindow="-615" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
   <si>
     <t>Value</t>
   </si>
@@ -276,9 +276,6 @@
   </si>
   <si>
     <t>ValueSet</t>
-  </si>
-  <si>
-    <t>patient,code,category</t>
   </si>
   <si>
     <t>combo_pairs</t>
@@ -293,12 +290,39 @@
 1. Declare a CapabilityStatement identifying the list of profiles, operations, search parameter supported.
 1. Support xml resource formats for all Argonaut questionnaire interactions.</t>
   </si>
+  <si>
+    <t>type,class,created</t>
+  </si>
+  <si>
+    <t>date,code,category</t>
+  </si>
+  <si>
+    <t>conf_Binary</t>
+  </si>
+  <si>
+    <t>patient,created</t>
+  </si>
+  <si>
+    <t>forbidden_s_combos</t>
+  </si>
+  <si>
+    <t>category,date|code,date</t>
+  </si>
+  <si>
+    <t>type,created|class,created</t>
+  </si>
+  <si>
+    <t>patient,category,code</t>
+  </si>
+  <si>
+    <t>The search parameters `created`, `class`, and `type`  MAY NOT be availabe as a *single* search parameter but SHALL be available in the combinations listed below.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,6 +344,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="19"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -335,7 +365,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -358,12 +388,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF7E7E7E"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -375,6 +414,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -748,7 +790,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -769,10 +811,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B139EF60-0633-48C5-B394-C56F006BD6B3}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,6 +867,9 @@
         <v>69</v>
       </c>
     </row>
+    <row r="4" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -833,10 +878,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACB4CFA-AAEF-4FC6-A49B-107CEE80A317}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,9 +893,10 @@
     <col min="5" max="6" width="17.42578125" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -875,15 +921,20 @@
       <c r="H1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="D2" t="s">
         <v>36</v>
       </c>
@@ -893,8 +944,11 @@
       <c r="G2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -909,6 +963,26 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -926,7 +1000,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E2E280-092F-4777-8984-8212A8DAB750}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C6:C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,9 +1055,10 @@
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -991,10 +1066,13 @@
         <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1005,12 +1083,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1020,23 +1098,26 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1047,12 +1128,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1066,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7399C2ED-EDEB-47AB-8C1E-1290512B1D2F}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1215,7 @@
         <v>26</v>
       </c>
       <c r="Q1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1288,7 +1369,7 @@
         <v>31</v>
       </c>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1311,7 +1392,7 @@
         <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" ref="H5" si="1">A5&amp;"."&amp;C5</f>
@@ -1327,7 +1408,7 @@
         <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M5" t="s">
         <v>31</v>
@@ -1395,6 +1476,9 @@
       <c r="P6" t="s">
         <v>31</v>
       </c>
+      <c r="Q6" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1447,7 +1531,7 @@
         <v>31</v>
       </c>
       <c r="Q7" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1659,6 +1743,9 @@
       <c r="P11" t="s">
         <v>31</v>
       </c>
+      <c r="Q11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1711,7 +1798,7 @@
         <v>31</v>
       </c>
       <c r="Q12" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/CapStatement/Argonaut_Capability_Statement_Clinical_Notes.xlsx
+++ b/CapStatement/Argonaut_Capability_Statement_Clinical_Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Python\MyNotebooks\CapStatement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/Python/MyNotebooks/CapStatement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2979D660-9140-4F33-BDFA-D1C1215ECE3D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A18504-C62B-A444-B0E7-E022B54239D3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-615" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -315,7 +314,7 @@
     <t>patient,category,code</t>
   </si>
   <si>
-    <t>The search parameters `created`, `class`, and `type`  MAY NOT be availabe as a *single* search parameter but SHALL be available in the combinations listed below.</t>
+    <t>- The search parameters `created`, `class`, and `type`  MAY NOT be availabe as a *single* search parameter but SHALL be available in the combinations listed below.</t>
   </si>
 </sst>
 </file>
@@ -739,13 +738,13 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="95.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="95.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -753,7 +752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -761,7 +760,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -769,7 +768,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -777,7 +776,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -785,7 +784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -793,7 +792,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -817,15 +816,15 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="98.42578125" customWidth="1"/>
-    <col min="2" max="2" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="98.5" customWidth="1"/>
+    <col min="2" max="2" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -839,7 +838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -853,7 +852,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -867,7 +866,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
     </row>
   </sheetData>
@@ -881,22 +880,22 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -925,7 +924,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -948,7 +947,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -969,7 +968,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -1003,12 +1002,12 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -1022,7 +1021,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -1050,15 +1049,15 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -1072,7 +1071,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1083,12 +1082,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1102,22 +1101,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1128,12 +1127,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1151,21 +1150,21 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="34.7109375" customWidth="1"/>
-    <col min="9" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="5" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" customWidth="1"/>
+    <col min="9" max="15" width="9.1640625" customWidth="1"/>
+    <col min="16" max="16" width="14.5" customWidth="1"/>
+    <col min="17" max="17" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1218,7 +1217,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>72</v>
       </c>
@@ -1268,7 +1267,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -1318,7 +1317,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -1372,7 +1371,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -1426,7 +1425,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -1480,7 +1479,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -1534,7 +1533,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -1585,7 +1584,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -1639,7 +1638,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -1693,7 +1692,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -1747,7 +1746,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>69</v>
       </c>

--- a/CapStatement/Argonaut_Capability_Statement_Clinical_Notes.xlsx
+++ b/CapStatement/Argonaut_Capability_Statement_Clinical_Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/Python/MyNotebooks/CapStatement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A18504-C62B-A444-B0E7-E022B54239D3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83F3659-F8AF-174A-A4EE-5E999A3D3823}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="126">
   <si>
     <t>Value</t>
   </si>
@@ -208,21 +209,12 @@
     <t>Name</t>
   </si>
   <si>
-    <t>For general security consideration refer to the [Security and Privacy Considerations](https://argonautproject.github.io/questionnaire/index.html#security-and-privacy-considerations).</t>
-  </si>
-  <si>
     <t>searchInclude</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>http://fhir.org/guides/argonaut-clinicalnotes/StructureDefinition/argo-clinicalnotes</t>
-  </si>
-  <si>
-    <t>http://fhir.org/guides/argonaut-clinicalnotes/StructureDefinition/argo-diagnosticreport-notes-and-reports</t>
-  </si>
-  <si>
     <t>DocumentReference</t>
   </si>
   <si>
@@ -232,18 +224,6 @@
     <t>conf_DocumentReference</t>
   </si>
   <si>
-    <t>ClinicalNotes</t>
-  </si>
-  <si>
-    <t>http://fhir.org/guides/argonaut-clinicalnotes/ImplementationGuide/ig</t>
-  </si>
-  <si>
-    <t>Argonaut Diagnostic Report Profile for Report and Note exchange </t>
-  </si>
-  <si>
-    <t>Argonaut Clinical Notes Profile </t>
-  </si>
-  <si>
     <t>DiagnosticReport</t>
   </si>
   <si>
@@ -265,9 +245,6 @@
     <t>created</t>
   </si>
   <si>
-    <t>This profile defines the expected capabilities of an Argonaut Data Query server when conforming to the Argonaut Data Query Clinical Notes IG. The CapabilityStatement resource includes the complete list of actual Clinical Notes profiles, RESTful operations, and search parameters supported by Argonaut Data Query Servers. Servers have the option of choosing from this list to access necessary data based on their local use cases and other contextual requirements.</t>
-  </si>
-  <si>
     <t>expand</t>
   </si>
   <si>
@@ -283,56 +260,175 @@
     <t>conf_DiagnosticReport</t>
   </si>
   <si>
-    <t>The Argonaut Clinical Notes Data Query Server **SHALL**:
+    <t>type,class,created</t>
+  </si>
+  <si>
+    <t>date,code,category</t>
+  </si>
+  <si>
+    <t>conf_Binary</t>
+  </si>
+  <si>
+    <t>patient,created</t>
+  </si>
+  <si>
+    <t>forbidden_s_combos</t>
+  </si>
+  <si>
+    <t>category,date|code,date</t>
+  </si>
+  <si>
+    <t>type,created|class,created</t>
+  </si>
+  <si>
+    <t>patient,category,code</t>
+  </si>
+  <si>
+    <t>- The search parameters `created`, `class`, and `type`  MAY NOT be available as a *single* search parameter but SHALL be available in the combinations listed below.</t>
+  </si>
+  <si>
+    <t>- The search parameters `date`, `category`, and  `code`  MAY NOT be available as a *single* search parameter but SHALL be available in the combinations listed below.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/STU3/ImplementationGuide/ig</t>
+  </si>
+  <si>
+    <t>davinci-deqm-producer-server</t>
+  </si>
+  <si>
+    <t>This profile defines the expected capabilities of a Da Vinci DEQM Producer Server when conforming to the Da Vinci DEQM Implementation Guide. Producers include systems that are primary producers of patient healthcare information.  This CapabilityStatement resource includes the complete list of the *recommended*  Da Vinci DEQM profiles and RESTful operations that are  Da Vinci DEQM Producer Server could support. Servers have the option of choosing from this list based on their local use cases and other contextual requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da Vinci DEQM **SHALL**
+1. Support at least one transaction defined in the *Framework* Section of  this  Implementation Guide.
+1. Declare a CapabilityStatement identifying the list of supported profiles and operations.
 1. Implement the RESTful behavior according to the FHIR specification including returning the appropriate response classes as described in the FHIR specification for [FHIR RESTful API](http://hl7.org/fhir/STU3/http.html).
-1. Support json resource formats for all Argonaut Clinical Notes interactions.
-1. Declare a CapabilityStatement identifying the list of profiles, operations, search parameter supported.
-1. Support xml resource formats for all Argonaut questionnaire interactions.</t>
-  </si>
-  <si>
-    <t>type,class,created</t>
-  </si>
-  <si>
-    <t>date,code,category</t>
-  </si>
-  <si>
-    <t>conf_Binary</t>
-  </si>
-  <si>
-    <t>patient,created</t>
-  </si>
-  <si>
-    <t>forbidden_s_combos</t>
-  </si>
-  <si>
-    <t>category,date|code,date</t>
-  </si>
-  <si>
-    <t>type,created|class,created</t>
-  </si>
-  <si>
-    <t>patient,category,code</t>
-  </si>
-  <si>
-    <t>- The search parameters `created`, `class`, and `type`  MAY NOT be availabe as a *single* search parameter but SHALL be available in the combinations listed below.</t>
+1. Support both xml and json resource formats for all interactions.
+</t>
+  </si>
+  <si>
+    <t>For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/STU3/StructureDefinition/devicerequest-deqm</t>
+  </si>
+  <si>
+    <t>DeviceRequest</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/STU3/StructureDefinition/measure-deqm</t>
+  </si>
+  <si>
+    <t>Measure</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/STU3/StructureDefinition/medicationadministration-deqm</t>
+  </si>
+  <si>
+    <t>MedicationAdministration</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/STU3/StructureDefinition/summary-measurereport-deqm</t>
+  </si>
+  <si>
+    <t>MeasureReport</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/STU3/StructureDefinition/library-deqm</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/STU3/StructureDefinition/datax-measurereport-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/STU3/StructureDefinition/practitioner-deqm</t>
+  </si>
+  <si>
+    <t>Practitioner</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/STU3/StructureDefinition/deviceusestatement-deqm</t>
+  </si>
+  <si>
+    <t>DeviceUseStatement</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/STU3/StructureDefinition/organization-deqm</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/STU3/StructureDefinition/coverage-deqm</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/STU3/StructureDefinition/indv-measurereport-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/STU3/StructureDefinition/medicationrequest-deqm</t>
+  </si>
+  <si>
+    <t>MedicationRequest</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/STU3/StructureDefinition/subscription-deqm</t>
+  </si>
+  <si>
+    <t>Subscription</t>
+  </si>
+  <si>
+    <t>DEQM DeviceRequest Profile</t>
+  </si>
+  <si>
+    <t>DEQM Measure Profile</t>
+  </si>
+  <si>
+    <t>DEQM MedicationAdministration Profile</t>
+  </si>
+  <si>
+    <t>DEQM Library Profile</t>
+  </si>
+  <si>
+    <t>DEQM Practitioner Profile</t>
+  </si>
+  <si>
+    <t>DEQM DeviceUseStatement Profile</t>
+  </si>
+  <si>
+    <t>DEQM Organization Profile</t>
+  </si>
+  <si>
+    <t>DEQM Coverage Profile</t>
+  </si>
+  <si>
+    <t>DEQM MedicationRequest Profile</t>
+  </si>
+  <si>
+    <t>DEQM Subscription Profile</t>
+  </si>
+  <si>
+    <t>DEQM Summary MeasureReport Profile</t>
+  </si>
+  <si>
+    <t>DEQM Data Exchange MeasureReport Profile</t>
+  </si>
+  <si>
+    <t>DEQM Individual MeasureReport Profile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -342,12 +438,6 @@
       <color rgb="FF333333"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="19"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -364,7 +454,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -387,21 +477,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF7E7E7E"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -409,17 +489,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -734,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15F3286-55C1-40D0-93FC-C97EF26956B8}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -757,23 +833,23 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>66</v>
+      <c r="B4" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -784,12 +860,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -797,23 +873,20 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{F4E5E31C-2B38-4CFF-AC2F-20C524F5A5E3}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B139EF60-0633-48C5-B394-C56F006BD6B3}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -840,34 +913,185 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -879,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACB4CFA-AAEF-4FC6-A49B-107CEE80A317}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -918,21 +1142,21 @@
         <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
@@ -944,17 +1168,19 @@
         <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="D3" t="s">
         <v>36</v>
       </c>
@@ -965,12 +1191,12 @@
         <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1009,10 +1235,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>51</v>
@@ -1023,13 +1249,13 @@
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -1062,13 +1288,13 @@
         <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1214,12 +1440,12 @@
         <v>26</v>
       </c>
       <c r="Q1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>72</v>
+      <c r="A2" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1240,7 +1466,7 @@
         <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I2" t="s">
         <v>28</v>
@@ -1269,7 +1495,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1290,7 +1516,7 @@
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I3" t="s">
         <v>28</v>
@@ -1319,13 +1545,13 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -1334,7 +1560,7 @@
         <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -1368,18 +1594,18 @@
         <v>31</v>
       </c>
       <c r="Q4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -1388,7 +1614,7 @@
         <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
@@ -1427,7 +1653,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1442,7 +1668,7 @@
         <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -1476,12 +1702,12 @@
         <v>31</v>
       </c>
       <c r="Q6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1496,7 +1722,7 @@
         <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -1530,12 +1756,12 @@
         <v>31</v>
       </c>
       <c r="Q7" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1586,13 +1812,13 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -1601,7 +1827,7 @@
         <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
         <v>29</v>
@@ -1640,7 +1866,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -1655,7 +1881,7 @@
         <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
         <v>29</v>
@@ -1694,7 +1920,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -1709,7 +1935,7 @@
         <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
@@ -1743,12 +1969,12 @@
         <v>31</v>
       </c>
       <c r="Q11" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1763,7 +1989,7 @@
         <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
         <v>34</v>
@@ -1797,7 +2023,7 @@
         <v>31</v>
       </c>
       <c r="Q12" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
